--- a/data/trans_camb/P23_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_4_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>5,57</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 11,12</t>
+          <t>-4,62; 14,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 8,9</t>
+          <t>-4,4; 14,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 2,6</t>
+          <t>-10,86; 2,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 2,51</t>
+          <t>-15,98; 3,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 5,05</t>
+          <t>-12,73; 7,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 2,88</t>
+          <t>-6,55; 18,74</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 4,97</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 8,09</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 10,12</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>83,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>110,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-37,3%</t>
+          <t>-61,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-41,61%</t>
+          <t>-61,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>-25,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,41%</t>
+          <t>64,27%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-22,66%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34,44%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 390,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,02; 292,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-87,23; 92,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-85,86; 95,35</t>
+          <t>-100,0; 148,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,75; 137,74</t>
+          <t>-88,06; 232,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,29; 80,92</t>
+          <t>-57,48; 502,22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-82,92; 167,35</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-65,43; 272,34</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-57,16; 304,9</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,72</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 8,2</t>
+          <t>-3,88; 5,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 10,62</t>
+          <t>-6,57; 1,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -2,17</t>
+          <t>-5,33; 3,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 0,38</t>
+          <t>-9,32; -0,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 1,0</t>
+          <t>-8,11; 1,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,51</t>
+          <t>-6,65; 3,79</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 1,19</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 0,02</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 2,42</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,78%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>-52,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-71,45%</t>
+          <t>-18,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-43,96%</t>
+          <t>-60,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-37,69%</t>
+          <t>-43,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-21,19%</t>
+          <t>-17,51%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-33,34%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-47,84%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-19,02%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 401,61</t>
+          <t>-67,03; 332,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,43; 564,99</t>
+          <t>-100,0; 221,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-89,8; -29,19</t>
+          <t>-85,63; 267,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-73,55; 11,68</t>
+          <t>-87,88; 4,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,93; 32,2</t>
+          <t>-80,91; 26,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,04; 70,65</t>
+          <t>-65,25; 90,86</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-69,94; 33,76</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-77,14; 6,75</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-58,21; 62,09</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,37</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -0,6</t>
+          <t>-4,5; 0,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 1,27</t>
+          <t>-2,76; 4,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 0,87</t>
+          <t>2,08; 16,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 3,34</t>
+          <t>-4,12; 3,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,01; -0,54</t>
+          <t>-3,37; 4,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,49</t>
+          <t>-2,36; 5,87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 1,02</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 2,87</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 9,35</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-88,55%</t>
+          <t>-66,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-47,31%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-50,59%</t>
+          <t>381,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>-26,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-66,64%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,75%</t>
+          <t>47,59%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-40,3%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>162,05%</t>
         </is>
       </c>
     </row>
@@ -1032,34 +1228,49 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 151,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-87,81; 36,28</t>
+          <t>-0,46; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-62,1; 140,56</t>
+          <t>-84,3; 233,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-89,5; -8,54</t>
+          <t>-75,29; 264,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,11; 67,85</t>
+          <t>-53,63; 366,49</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-84,23; 88,77</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-59,46; 196,0</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10,8; 549,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; -1,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 0,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-61,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-33,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-36,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,91; 116,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,08; 196,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-79,45; -31,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-60,73; 11,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,51; 15,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 38,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-3,1</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 3,43</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 2,29</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 5,81</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; -0,64</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 1,25</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 4,79</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 0,41</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 1,18</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 4,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-12,63%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>60,79%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-52,81%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-26,71%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-32,79%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-23,01%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>33,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-55,3; 158,9</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-67,15; 119,67</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-31,78; 297,6</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-79,6; -10,51</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-61,06; 34,21</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-31,87; 116,35</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-61,35; 13,1</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-54,66; 34,29</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-15,43; 112,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
